--- a/Tax Measures.xlsx
+++ b/Tax Measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrxz12\Dropbox\Master_Thesis\1_Data\tax_progressivity\AMTR_construction\mertens_olea\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lc/Dropbox/Master_Thesis/1_Data/tax_progressivity/AMTR_construction/mertens_olea/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591012F-6E48-4DC4-B5AE-2B9C6AFF4E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933C412E-13B7-9A46-AC71-AF7B587CD93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" activeTab="7" xr2:uid="{6AF55185-0C85-4FA1-BA50-40ED25B99147}"/>
+    <workbookView xWindow="31860" yWindow="500" windowWidth="25920" windowHeight="16740" activeTab="7" xr2:uid="{6AF55185-0C85-4FA1-BA50-40ED25B99147}"/>
   </bookViews>
   <sheets>
     <sheet name="Tax Progressivity_NIPA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ATRs" sheetId="7" r:id="rId3"/>
     <sheet name="AMTRs" sheetId="6" r:id="rId4"/>
     <sheet name="AMPTRs" sheetId="3" r:id="rId5"/>
-    <sheet name="AMTR_pre46" sheetId="5" r:id="rId6"/>
+    <sheet name="Measures_pre46" sheetId="5" r:id="rId6"/>
     <sheet name="AMIITRs" sheetId="4" r:id="rId7"/>
     <sheet name="Read ME" sheetId="2" r:id="rId8"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Method 1</t>
   </si>
@@ -243,13 +243,31 @@
   <si>
     <t xml:space="preserve">In Mertens &amp; Olea (2018), the average tax rate is the sum of federal personal current taxes and contributions for social insurance (NIPA 3.2, line 3, plus NIPA 3.7, lines 3 and 21) divided by total market income from Piketty and Saez (2003). Adding contributions for social insurance also comes from Piketty and Saez (2003). Barro 1983 creates a simple measure for ATR: tax liability/total personal income from NIPA. I did not use this for the Barro Progressivity measure, but the data is there to make it.  </t>
   </si>
+  <si>
+    <t>AMIITR_Saez</t>
+  </si>
+  <si>
+    <t>_cg</t>
+  </si>
+  <si>
+    <t>with capital gains</t>
+  </si>
+  <si>
+    <t>_Piketty</t>
+  </si>
+  <si>
+    <t>From Piketty tables (see below)</t>
+  </si>
+  <si>
+    <t>Progressivity_noAMPTR_cg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -376,12 +394,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,12 +408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -407,28 +419,19 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -437,6 +440,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,15 +789,15 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="18.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -787,7 +811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1946</v>
       </c>
@@ -800,7 +824,7 @@
         <v>0.13749631477415838</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1947</v>
       </c>
@@ -811,7 +835,7 @@
         <v>0.13303877222580629</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1948</v>
       </c>
@@ -822,7 +846,7 @@
         <v>9.1586049552096913E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1949</v>
       </c>
@@ -833,7 +857,7 @@
         <v>0.11578235236870627</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1950</v>
       </c>
@@ -844,7 +868,7 @@
         <v>0.12627592780194066</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -855,7 +879,7 @@
         <v>0.15808956091569012</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1952</v>
       </c>
@@ -866,7 +890,7 @@
         <v>0.17379828638140615</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1953</v>
       </c>
@@ -877,7 +901,7 @@
         <v>0.17659087433181478</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1954</v>
       </c>
@@ -888,7 +912,7 @@
         <v>0.153942452421262</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1955</v>
       </c>
@@ -899,7 +923,7 @@
         <v>0.16054260011905239</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1956</v>
       </c>
@@ -910,7 +934,7 @@
         <v>0.15863210572712141</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1957</v>
       </c>
@@ -921,7 +945,7 @@
         <v>0.16060484455497734</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1958</v>
       </c>
@@ -932,7 +956,7 @@
         <v>0.1625013552424637</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1959</v>
       </c>
@@ -943,7 +967,7 @@
         <v>0.16711091396175015</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1960</v>
       </c>
@@ -958,7 +982,7 @@
         <v>0.14861991585590326</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1961</v>
       </c>
@@ -972,7 +996,7 @@
         <v>0.15402037790098569</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1962</v>
       </c>
@@ -986,7 +1010,7 @@
         <v>0.15737498934427008</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1963</v>
       </c>
@@ -1000,7 +1024,7 @@
         <v>0.16137470809402302</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1964</v>
       </c>
@@ -1014,7 +1038,7 @@
         <v>0.14999799256752272</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1965</v>
       </c>
@@ -1028,7 +1052,7 @@
         <v>0.13894456216524148</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1966</v>
       </c>
@@ -1042,7 +1066,7 @@
         <v>0.1430454750176684</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1967</v>
       </c>
@@ -1056,7 +1080,7 @@
         <v>0.14534087209002605</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1968</v>
       </c>
@@ -1070,7 +1094,7 @@
         <v>0.1657598322332233</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1969</v>
       </c>
@@ -1084,7 +1108,7 @@
         <v>0.17327661592129109</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1970</v>
       </c>
@@ -1098,7 +1122,7 @@
         <v>0.16860316777292214</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1971</v>
       </c>
@@ -1112,7 +1136,7 @@
         <v>0.16961648535624133</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1972</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>0.16416214838032805</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1973</v>
       </c>
@@ -1140,7 +1164,7 @@
         <v>0.18136344197385765</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1974</v>
       </c>
@@ -1154,7 +1178,7 @@
         <v>0.18569590880249962</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1975</v>
       </c>
@@ -1168,7 +1192,7 @@
         <v>0.20051464731363811</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1976</v>
       </c>
@@ -1182,7 +1206,7 @@
         <v>0.20288664340031595</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1977</v>
       </c>
@@ -1196,7 +1220,7 @@
         <v>0.20071439003743513</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1978</v>
       </c>
@@ -1210,7 +1234,7 @@
         <v>0.21200529583964858</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1979</v>
       </c>
@@ -1224,7 +1248,7 @@
         <v>0.19845092741963696</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1980</v>
       </c>
@@ -1238,7 +1262,7 @@
         <v>0.21425167050646782</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1981</v>
       </c>
@@ -1252,7 +1276,7 @@
         <v>0.21979972194767999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1982</v>
       </c>
@@ -1266,7 +1290,7 @@
         <v>0.19585038507596758</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1983</v>
       </c>
@@ -1280,7 +1304,7 @@
         <v>0.18787453359576559</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1984</v>
       </c>
@@ -1294,7 +1318,7 @@
         <v>0.19851584396669417</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1985</v>
       </c>
@@ -1308,7 +1332,7 @@
         <v>0.19849570854352055</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1986</v>
       </c>
@@ -1322,7 +1346,7 @@
         <v>0.20095597937964513</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1987</v>
       </c>
@@ -1336,7 +1360,7 @@
         <v>0.15963670851207931</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1988</v>
       </c>
@@ -1350,7 +1374,7 @@
         <v>0.14763809757513363</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1989</v>
       </c>
@@ -1364,7 +1388,7 @@
         <v>0.14638466398145181</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1990</v>
       </c>
@@ -1378,7 +1402,7 @@
         <v>0.14815624576455497</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1991</v>
       </c>
@@ -1392,7 +1416,7 @@
         <v>0.1516568208591304</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1992</v>
       </c>
@@ -1406,7 +1430,7 @@
         <v>0.15342989712890256</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1993</v>
       </c>
@@ -1420,7 +1444,7 @@
         <v>0.15849138334763682</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1994</v>
       </c>
@@ -1434,7 +1458,7 @@
         <v>0.15780903949405664</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1995</v>
       </c>
@@ -1448,7 +1472,7 @@
         <v>0.15689446436367571</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1996</v>
       </c>
@@ -1462,7 +1486,7 @@
         <v>0.15325485269093672</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1997</v>
       </c>
@@ -1476,7 +1500,7 @@
         <v>0.14456267607932122</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1998</v>
       </c>
@@ -1490,7 +1514,7 @@
         <v>0.14002879330903292</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1999</v>
       </c>
@@ -1504,7 +1528,7 @@
         <v>0.14061848300239244</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>0.1463830096250088</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2001</v>
       </c>
@@ -1532,7 +1556,7 @@
         <v>0.14436590009995545</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -1546,7 +1570,7 @@
         <v>0.15853033675560538</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2003</v>
       </c>
@@ -1560,7 +1584,7 @@
         <v>0.14481615684060867</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2004</v>
       </c>
@@ -1574,7 +1598,7 @@
         <v>0.1478064331708524</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2005</v>
       </c>
@@ -1588,7 +1612,7 @@
         <v>0.14433215343831388</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2006</v>
       </c>
@@ -1602,7 +1626,7 @@
         <v>0.1402429066205714</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2007</v>
       </c>
@@ -1616,7 +1640,7 @@
         <v>0.13572272686209252</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2008</v>
       </c>
@@ -1630,7 +1654,7 @@
         <v>0.1374286068081555</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2009</v>
       </c>
@@ -1644,7 +1668,7 @@
         <v>0.15314617794664795</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2010</v>
       </c>
@@ -1658,7 +1682,7 @@
         <v>0.15227185461647749</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -1672,7 +1696,7 @@
         <v>0.14221813809895828</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2012</v>
       </c>
@@ -1686,7 +1710,7 @@
         <v>0.14371148468652664</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2013</v>
       </c>
@@ -1700,7 +1724,7 @@
         <v>0.14219111338540305</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2014</v>
       </c>
@@ -1714,7 +1738,7 @@
         <v>0.14383418354505464</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -1728,7 +1752,7 @@
         <v>0.14019864340061086</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2016</v>
       </c>
@@ -1742,7 +1766,7 @@
         <v>0.14622092974477177</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -1766,12 +1790,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="18.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +1809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1946</v>
       </c>
@@ -1798,7 +1822,7 @@
         <v>6.1121965066729469E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1947</v>
       </c>
@@ -1809,7 +1833,7 @@
         <v>7.0326749775023373E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1948</v>
       </c>
@@ -1820,7 +1844,7 @@
         <v>4.1412421536163514E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1949</v>
       </c>
@@ -1831,7 +1855,7 @@
         <v>6.7846881378871224E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1950</v>
       </c>
@@ -1842,7 +1866,7 @@
         <v>7.9422399291613752E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -1853,7 +1877,7 @@
         <v>0.10260695687641969</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1952</v>
       </c>
@@ -1864,7 +1888,7 @@
         <v>0.11482329681581009</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1953</v>
       </c>
@@ -1875,7 +1899,7 @@
         <v>0.11918440998744292</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1954</v>
       </c>
@@ -1886,7 +1910,7 @@
         <v>9.5723836347444871E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1955</v>
       </c>
@@ -1897,7 +1921,7 @@
         <v>0.10249487210882398</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1956</v>
       </c>
@@ -1908,7 +1932,7 @@
         <v>9.847300409439895E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1957</v>
       </c>
@@ -1919,7 +1943,7 @@
         <v>9.484943643652631E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1958</v>
       </c>
@@ -1930,7 +1954,7 @@
         <v>9.6486442508299491E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1959</v>
       </c>
@@ -1941,7 +1965,7 @@
         <v>9.8864276060425832E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1960</v>
       </c>
@@ -1956,7 +1980,7 @@
         <v>6.7481056500864445E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1961</v>
       </c>
@@ -1970,7 +1994,7 @@
         <v>7.6741434636061173E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1962</v>
       </c>
@@ -1984,7 +2008,7 @@
         <v>7.4007434282442996E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1963</v>
       </c>
@@ -1998,7 +2022,7 @@
         <v>7.5042197101705857E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1964</v>
       </c>
@@ -2012,7 +2036,7 @@
         <v>7.224245709154746E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1965</v>
       </c>
@@ -2026,7 +2050,7 @@
         <v>6.1392645781658782E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1966</v>
       </c>
@@ -2040,7 +2064,7 @@
         <v>4.9684349514140538E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1967</v>
       </c>
@@ -2054,7 +2078,7 @@
         <v>5.0447574821629058E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1968</v>
       </c>
@@ -2068,7 +2092,7 @@
         <v>6.9785469478420778E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1969</v>
       </c>
@@ -2082,7 +2106,7 @@
         <v>6.40398405144431E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1970</v>
       </c>
@@ -2096,7 +2120,7 @@
         <v>6.1190023481741705E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1971</v>
       </c>
@@ -2110,7 +2134,7 @@
         <v>6.5193597160511582E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1972</v>
       </c>
@@ -2124,7 +2148,7 @@
         <v>5.2102315237558594E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1973</v>
       </c>
@@ -2138,7 +2162,7 @@
         <v>5.7943281612180604E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1974</v>
       </c>
@@ -2152,7 +2176,7 @@
         <v>5.5034237769913015E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1975</v>
       </c>
@@ -2166,7 +2190,7 @@
         <v>7.5060249764573303E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1976</v>
       </c>
@@ -2180,7 +2204,7 @@
         <v>7.4100956542954302E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1977</v>
       </c>
@@ -2194,7 +2218,7 @@
         <v>6.7226840764559662E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1978</v>
       </c>
@@ -2208,7 +2232,7 @@
         <v>7.4083526007382397E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1979</v>
       </c>
@@ -2222,7 +2246,7 @@
         <v>5.3629923668370244E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1980</v>
       </c>
@@ -2236,7 +2260,7 @@
         <v>7.1631538311106385E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1981</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>6.4224978466079344E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1982</v>
       </c>
@@ -2264,7 +2288,7 @@
         <v>3.6805379530139591E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1983</v>
       </c>
@@ -2278,7 +2302,7 @@
         <v>3.2232841503383756E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1984</v>
       </c>
@@ -2292,7 +2316,7 @@
         <v>4.1518193874801899E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1985</v>
       </c>
@@ -2306,7 +2330,7 @@
         <v>3.9014641734933617E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1986</v>
       </c>
@@ -2320,7 +2344,7 @@
         <v>5.4741454245213171E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1987</v>
       </c>
@@ -2334,7 +2358,7 @@
         <v>-1.7003033084847363E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1988</v>
       </c>
@@ -2348,7 +2372,7 @@
         <v>-2.4541959498924685E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1989</v>
       </c>
@@ -2362,7 +2386,7 @@
         <v>-3.5413525271472734E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1990</v>
       </c>
@@ -2376,7 +2400,7 @@
         <v>-3.6052834441946124E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1991</v>
       </c>
@@ -2390,7 +2414,7 @@
         <v>-3.7442912194525536E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1992</v>
       </c>
@@ -2404,7 +2428,7 @@
         <v>-3.6597844198906805E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1993</v>
       </c>
@@ -2418,7 +2442,7 @@
         <v>-3.8536384893568018E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1994</v>
       </c>
@@ -2432,7 +2456,7 @@
         <v>-4.4591389895850049E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1995</v>
       </c>
@@ -2446,7 +2470,7 @@
         <v>-4.2134181852656667E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1996</v>
       </c>
@@ -2460,7 +2484,7 @@
         <v>-4.2397560054129216E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1997</v>
       </c>
@@ -2474,7 +2498,7 @@
         <v>-4.576685775769794E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1998</v>
       </c>
@@ -2488,7 +2512,7 @@
         <v>-4.6913167651292144E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1999</v>
       </c>
@@ -2502,7 +2526,7 @@
         <v>-3.9511386386203676E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -2516,7 +2540,7 @@
         <v>-3.440980496386857E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2001</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>-5.813096383931099E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -2544,7 +2568,7 @@
         <v>-3.6461402309444849E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2003</v>
       </c>
@@ -2558,7 +2582,7 @@
         <v>-4.6212637331568183E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2004</v>
       </c>
@@ -2572,7 +2596,7 @@
         <v>-2.9889600513280396E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2005</v>
       </c>
@@ -2586,7 +2610,7 @@
         <v>-2.9360495762709615E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2006</v>
       </c>
@@ -2600,7 +2624,7 @@
         <v>-3.3789905593664654E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2007</v>
       </c>
@@ -2614,7 +2638,7 @@
         <v>-3.393739391280122E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2008</v>
       </c>
@@ -2628,7 +2652,7 @@
         <v>-5.8300158987610866E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2009</v>
       </c>
@@ -2642,7 +2666,7 @@
         <v>-3.5636630696719435E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2010</v>
       </c>
@@ -2656,7 +2680,7 @@
         <v>-3.2129234370708068E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -2670,7 +2694,7 @@
         <v>-4.0961672041972687E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2012</v>
       </c>
@@ -2684,7 +2708,7 @@
         <v>-2.2962049381120724E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2013</v>
       </c>
@@ -2698,7 +2722,7 @@
         <v>-5.9242309371974985E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2014</v>
       </c>
@@ -2712,7 +2736,7 @@
         <v>-5.0023517903762832E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>-5.8920808874693538E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2016</v>
       </c>
@@ -2740,7 +2764,7 @@
         <v>-6.0346460173100108E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -2761,20 +2785,20 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2794,7 +2818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1946</v>
       </c>
@@ -2812,7 +2836,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1947</v>
       </c>
@@ -2830,7 +2854,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1948</v>
       </c>
@@ -2848,7 +2872,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1949</v>
       </c>
@@ -2866,7 +2890,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1950</v>
       </c>
@@ -2884,7 +2908,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1951</v>
       </c>
@@ -2902,7 +2926,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1952</v>
       </c>
@@ -2920,7 +2944,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1953</v>
       </c>
@@ -2938,7 +2962,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1954</v>
       </c>
@@ -2956,7 +2980,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1955</v>
       </c>
@@ -2974,7 +2998,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1956</v>
       </c>
@@ -2992,7 +3016,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1957</v>
       </c>
@@ -3010,7 +3034,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1958</v>
       </c>
@@ -3028,7 +3052,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1959</v>
       </c>
@@ -3046,7 +3070,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1960</v>
       </c>
@@ -3066,7 +3090,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1961</v>
       </c>
@@ -3086,7 +3110,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1962</v>
       </c>
@@ -3106,7 +3130,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1963</v>
       </c>
@@ -3126,7 +3150,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1964</v>
       </c>
@@ -3146,7 +3170,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1965</v>
       </c>
@@ -3166,7 +3190,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1966</v>
       </c>
@@ -3186,7 +3210,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1967</v>
       </c>
@@ -3206,7 +3230,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1968</v>
       </c>
@@ -3226,7 +3250,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1969</v>
       </c>
@@ -3246,7 +3270,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1970</v>
       </c>
@@ -3266,7 +3290,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1971</v>
       </c>
@@ -3286,7 +3310,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1972</v>
       </c>
@@ -3306,7 +3330,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1973</v>
       </c>
@@ -3326,7 +3350,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1974</v>
       </c>
@@ -3346,7 +3370,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1975</v>
       </c>
@@ -3366,7 +3390,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1976</v>
       </c>
@@ -3386,7 +3410,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1977</v>
       </c>
@@ -3406,7 +3430,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1978</v>
       </c>
@@ -3426,7 +3450,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1979</v>
       </c>
@@ -3446,7 +3470,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1980</v>
       </c>
@@ -3466,7 +3490,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1981</v>
       </c>
@@ -3486,7 +3510,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1982</v>
       </c>
@@ -3506,7 +3530,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1983</v>
       </c>
@@ -3526,7 +3550,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1984</v>
       </c>
@@ -3546,7 +3570,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1985</v>
       </c>
@@ -3566,7 +3590,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1986</v>
       </c>
@@ -3586,7 +3610,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1987</v>
       </c>
@@ -3606,7 +3630,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1988</v>
       </c>
@@ -3626,7 +3650,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1989</v>
       </c>
@@ -3646,7 +3670,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1990</v>
       </c>
@@ -3666,7 +3690,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1991</v>
       </c>
@@ -3686,7 +3710,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1992</v>
       </c>
@@ -3706,7 +3730,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1993</v>
       </c>
@@ -3726,7 +3750,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1994</v>
       </c>
@@ -3746,7 +3770,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1995</v>
       </c>
@@ -3766,7 +3790,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1996</v>
       </c>
@@ -3786,7 +3810,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1997</v>
       </c>
@@ -3806,7 +3830,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1998</v>
       </c>
@@ -3826,7 +3850,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1999</v>
       </c>
@@ -3846,7 +3870,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2000</v>
       </c>
@@ -3866,7 +3890,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2001</v>
       </c>
@@ -3886,7 +3910,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2002</v>
       </c>
@@ -3906,7 +3930,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2003</v>
       </c>
@@ -3926,7 +3950,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2004</v>
       </c>
@@ -3946,7 +3970,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2005</v>
       </c>
@@ -3966,7 +3990,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2006</v>
       </c>
@@ -3986,7 +4010,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2007</v>
       </c>
@@ -4006,7 +4030,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2008</v>
       </c>
@@ -4026,7 +4050,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2009</v>
       </c>
@@ -4046,7 +4070,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2010</v>
       </c>
@@ -4066,7 +4090,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2011</v>
       </c>
@@ -4086,7 +4110,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2012</v>
       </c>
@@ -4106,7 +4130,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2013</v>
       </c>
@@ -4126,7 +4150,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2014</v>
       </c>
@@ -4146,7 +4170,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2015</v>
       </c>
@@ -4166,7 +4190,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2016</v>
       </c>
@@ -4186,7 +4210,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2017</v>
       </c>
@@ -4226,9 +4250,9 @@
       <selection activeCell="D16" sqref="A1:D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4242,7 +4266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1946</v>
       </c>
@@ -4256,7 +4280,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1947</v>
       </c>
@@ -4268,7 +4292,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1948</v>
       </c>
@@ -4280,7 +4304,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1949</v>
       </c>
@@ -4292,7 +4316,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1950</v>
       </c>
@@ -4304,7 +4328,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1951</v>
       </c>
@@ -4316,7 +4340,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1952</v>
       </c>
@@ -4328,7 +4352,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1953</v>
       </c>
@@ -4340,7 +4364,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>1954</v>
       </c>
@@ -4352,7 +4376,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1955</v>
       </c>
@@ -4364,7 +4388,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>1956</v>
       </c>
@@ -4376,7 +4400,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>1957</v>
       </c>
@@ -4388,7 +4412,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1958</v>
       </c>
@@ -4400,7 +4424,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>1959</v>
       </c>
@@ -4412,7 +4436,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>1960</v>
       </c>
@@ -4426,7 +4450,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>1961</v>
       </c>
@@ -4440,7 +4464,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>1962</v>
       </c>
@@ -4454,7 +4478,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>1963</v>
       </c>
@@ -4468,7 +4492,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>1964</v>
       </c>
@@ -4482,7 +4506,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>1965</v>
       </c>
@@ -4496,7 +4520,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>1966</v>
       </c>
@@ -4510,7 +4534,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>1967</v>
       </c>
@@ -4524,7 +4548,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>1968</v>
       </c>
@@ -4538,7 +4562,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>1969</v>
       </c>
@@ -4552,7 +4576,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>1970</v>
       </c>
@@ -4566,7 +4590,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>1971</v>
       </c>
@@ -4580,7 +4604,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>1972</v>
       </c>
@@ -4594,7 +4618,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>1973</v>
       </c>
@@ -4608,7 +4632,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>1974</v>
       </c>
@@ -4622,7 +4646,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>1975</v>
       </c>
@@ -4636,7 +4660,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>1976</v>
       </c>
@@ -4650,7 +4674,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>1977</v>
       </c>
@@ -4664,7 +4688,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>1978</v>
       </c>
@@ -4678,7 +4702,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>1979</v>
       </c>
@@ -4692,7 +4716,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>1980</v>
       </c>
@@ -4706,7 +4730,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>1981</v>
       </c>
@@ -4720,7 +4744,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>1982</v>
       </c>
@@ -4734,7 +4758,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>1983</v>
       </c>
@@ -4748,7 +4772,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>1984</v>
       </c>
@@ -4762,7 +4786,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>1985</v>
       </c>
@@ -4776,7 +4800,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>1986</v>
       </c>
@@ -4790,7 +4814,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>1987</v>
       </c>
@@ -4804,7 +4828,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>1988</v>
       </c>
@@ -4818,7 +4842,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>1989</v>
       </c>
@@ -4832,7 +4856,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>1990</v>
       </c>
@@ -4846,7 +4870,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>1991</v>
       </c>
@@ -4860,7 +4884,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>1992</v>
       </c>
@@ -4874,7 +4898,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>1993</v>
       </c>
@@ -4888,7 +4912,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>1994</v>
       </c>
@@ -4902,7 +4926,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>1995</v>
       </c>
@@ -4916,7 +4940,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>1996</v>
       </c>
@@ -4930,7 +4954,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>1997</v>
       </c>
@@ -4944,7 +4968,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>1998</v>
       </c>
@@ -4958,7 +4982,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>1999</v>
       </c>
@@ -4972,7 +4996,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2000</v>
       </c>
@@ -4986,7 +5010,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2001</v>
       </c>
@@ -5000,7 +5024,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2002</v>
       </c>
@@ -5014,7 +5038,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2003</v>
       </c>
@@ -5028,7 +5052,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2004</v>
       </c>
@@ -5042,7 +5066,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2005</v>
       </c>
@@ -5056,7 +5080,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2006</v>
       </c>
@@ -5070,7 +5094,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2007</v>
       </c>
@@ -5084,7 +5108,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2008</v>
       </c>
@@ -5098,7 +5122,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2009</v>
       </c>
@@ -5112,7 +5136,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2010</v>
       </c>
@@ -5126,7 +5150,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2011</v>
       </c>
@@ -5140,7 +5164,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2012</v>
       </c>
@@ -5154,7 +5178,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2013</v>
       </c>
@@ -5168,7 +5192,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2014</v>
       </c>
@@ -5182,7 +5206,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2015</v>
       </c>
@@ -5196,7 +5220,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2016</v>
       </c>
@@ -5210,7 +5234,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2017</v>
       </c>
@@ -5237,9 +5261,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5271,7 +5295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1946</v>
       </c>
@@ -5303,7 +5327,7 @@
         <v>1.1206994605368635E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1947</v>
       </c>
@@ -5335,7 +5359,7 @@
         <v>9.7406461957671182E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1948</v>
       </c>
@@ -5367,7 +5391,7 @@
         <v>7.3136007695885404E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1949</v>
       </c>
@@ -5399,7 +5423,7 @@
         <v>1.1217468516513359E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1950</v>
       </c>
@@ -5431,7 +5455,7 @@
         <v>9.9900506417081158E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -5463,7 +5487,7 @@
         <v>1.3132655897448931E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1952</v>
       </c>
@@ -5495,7 +5519,7 @@
         <v>1.2151794042894003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1953</v>
       </c>
@@ -5527,7 +5551,7 @@
         <v>1.1110977328052295E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1954</v>
       </c>
@@ -5559,7 +5583,7 @@
         <v>1.4629192679901834E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1955</v>
       </c>
@@ -5591,7 +5615,7 @@
         <v>1.7964494486013317E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1956</v>
       </c>
@@ -5623,7 +5647,7 @@
         <v>1.7165446987157128E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1957</v>
       </c>
@@ -5655,7 +5679,7 @@
         <v>1.9369937119444989E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1958</v>
       </c>
@@ -5687,7 +5711,7 @@
         <v>1.9020918375437224E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1959</v>
       </c>
@@ -5719,7 +5743,7 @@
         <v>2.3269265303291865E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1960</v>
       </c>
@@ -5751,7 +5775,7 @@
         <v>2.6464492277095252E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1961</v>
       </c>
@@ -5783,7 +5807,7 @@
         <v>2.5214706495966903E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1962</v>
       </c>
@@ -5815,7 +5839,7 @@
         <v>2.4669356334657624E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1963</v>
       </c>
@@ -5847,7 +5871,7 @@
         <v>2.6495805280336935E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1964</v>
       </c>
@@ -5879,7 +5903,7 @@
         <v>2.4963111649703686E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1965</v>
       </c>
@@ -5911,7 +5935,7 @@
         <v>2.3981845026898943E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1966</v>
       </c>
@@ -5943,7 +5967,7 @@
         <v>4.0682074314241728E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1967</v>
       </c>
@@ -5975,7 +5999,7 @@
         <v>4.0354993920403974E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1968</v>
       </c>
@@ -6007,7 +6031,7 @@
         <v>4.6811477857509158E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1969</v>
       </c>
@@ -6039,7 +6063,7 @@
         <v>4.7037318871506063E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1970</v>
       </c>
@@ -6071,7 +6095,7 @@
         <v>4.3711863629284566E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1971</v>
       </c>
@@ -6103,7 +6127,7 @@
         <v>4.315717353282407E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1972</v>
       </c>
@@ -6135,7 +6159,7 @@
         <v>4.7454563313258875E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1973</v>
       </c>
@@ -6167,7 +6191,7 @@
         <v>6.1189776420184396E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1974</v>
       </c>
@@ -6199,7 +6223,7 @@
         <v>7.050426182535284E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1975</v>
       </c>
@@ -6231,7 +6255,7 @@
         <v>6.9246864904744854E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1976</v>
       </c>
@@ -6263,7 +6287,7 @@
         <v>6.9323060612532475E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1977</v>
       </c>
@@ -6295,7 +6319,7 @@
         <v>6.9885263561418443E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1978</v>
       </c>
@@ -6327,7 +6351,7 @@
         <v>7.0810133818471913E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1979</v>
       </c>
@@ -6359,7 +6383,7 @@
         <v>8.4186314323232619E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1980</v>
       </c>
@@ -6391,7 +6415,7 @@
         <v>8.6167259564029611E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1981</v>
       </c>
@@ -6423,7 +6447,7 @@
         <v>9.2487754036033265E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1982</v>
       </c>
@@ -6455,7 +6479,7 @@
         <v>9.2933072335055864E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1983</v>
       </c>
@@ -6487,7 +6511,7 @@
         <v>9.5431976261068405E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1984</v>
       </c>
@@ -6519,7 +6543,7 @@
         <v>0.10151285759638436</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1985</v>
       </c>
@@ -6551,7 +6575,7 @@
         <v>0.10496229144869842</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1986</v>
       </c>
@@ -6583,7 +6607,7 @@
         <v>0.10792100155790235</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1987</v>
       </c>
@@ -6615,7 +6639,7 @@
         <v>0.10862675524148811</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1988</v>
       </c>
@@ -6647,7 +6671,7 @@
         <v>0.11167650973868712</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1989</v>
       </c>
@@ -6679,7 +6703,7 @@
         <v>0.11350350726839442</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1990</v>
       </c>
@@ -6711,7 +6735,7 @@
         <v>0.11583637325287559</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1991</v>
       </c>
@@ -6743,7 +6767,7 @@
         <v>0.11143360706779191</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1992</v>
       </c>
@@ -6775,7 +6799,7 @@
         <v>0.11344626885241998</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1993</v>
       </c>
@@ -6807,7 +6831,7 @@
         <v>0.11384579344023814</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1994</v>
       </c>
@@ -6839,7 +6863,7 @@
         <v>0.11930814612342473</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1995</v>
       </c>
@@ -6871,7 +6895,7 @@
         <v>0.11927333222938846</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1996</v>
       </c>
@@ -6903,7 +6927,7 @@
         <v>0.11951026428611355</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1997</v>
       </c>
@@ -6935,7 +6959,7 @@
         <v>0.12127082254289065</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1998</v>
       </c>
@@ -6967,7 +6991,7 @@
         <v>0.12259979752196577</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1999</v>
       </c>
@@ -6999,7 +7023,7 @@
         <v>0.12322772393376963</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -7031,7 +7055,7 @@
         <v>0.12481417480310121</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2001</v>
       </c>
@@ -7063,7 +7087,7 @@
         <v>0.12268754404727714</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -7095,7 +7119,7 @@
         <v>0.12673763402140867</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2003</v>
       </c>
@@ -7127,7 +7151,7 @@
         <v>0.12709627883908187</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2004</v>
       </c>
@@ -7159,7 +7183,7 @@
         <v>0.12755821478275053</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2005</v>
       </c>
@@ -7191,7 +7215,7 @@
         <v>0.12858145870225679</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2006</v>
       </c>
@@ -7223,7 +7247,7 @@
         <v>0.12996831682454954</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2007</v>
       </c>
@@ -7255,7 +7279,7 @@
         <v>0.12744938255030597</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2008</v>
       </c>
@@ -7287,7 +7311,7 @@
         <v>0.13058560297912525</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2009</v>
       </c>
@@ -7319,7 +7343,7 @@
         <v>0.12933303410842117</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2010</v>
       </c>
@@ -7351,7 +7375,7 @@
         <v>0.12717280475787782</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -7383,7 +7407,7 @@
         <v>0.12578635771122718</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2012</v>
       </c>
@@ -7415,7 +7439,7 @@
         <v>0.12749333983127484</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2013</v>
       </c>
@@ -7447,7 +7471,7 @@
         <v>0.13178535210219849</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2014</v>
       </c>
@@ -7479,7 +7503,7 @@
         <v>0.13118753082263507</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -7511,7 +7535,7 @@
         <v>0.13234673448218515</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2016</v>
       </c>
@@ -7543,7 +7567,7 @@
         <v>0.1346737112805147</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -7582,12 +7606,734 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B06FA-F0B7-4A2B-A967-1CF10ED27262}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="28">
+        <v>1913</v>
+      </c>
+      <c r="B2" s="26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="27">
+        <v>1.0133586193873494E-3</v>
+      </c>
+      <c r="E2" s="27">
+        <v>1.0133586193873494E-3</v>
+      </c>
+      <c r="F2">
+        <f>(B2-E2)/(1-E2)</f>
+        <v>1.9886566029222235E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="28">
+        <v>1914</v>
+      </c>
+      <c r="B3" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1.4670016886239197E-3</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1.4670016886239197E-3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F34" si="0">(B3-E3)/(1-E3)</f>
+        <v>3.5381888403795874E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="28">
+        <v>1915</v>
+      </c>
+      <c r="B4" s="26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="27">
+        <v>2.3469635261538684E-3</v>
+      </c>
+      <c r="E4" s="27">
+        <v>2.3469635261538684E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.6639826710617267E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="28">
+        <v>1916</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C5" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="27">
+        <v>5.0208937690725637E-3</v>
+      </c>
+      <c r="E5" s="27">
+        <v>4.9417841995990485E-3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>7.0932692060870954E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <v>1917</v>
+      </c>
+      <c r="B6" s="26">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1.9006825333896086E-2</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1.8841869556638923E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.85068337915682E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <v>1918</v>
+      </c>
+      <c r="B7" s="26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D7" s="27">
+        <v>2.4222403972020294E-2</v>
+      </c>
+      <c r="E7" s="27">
+        <v>2.4044884348980236E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.0693128373058355E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="28">
+        <v>1919</v>
+      </c>
+      <c r="B8" s="26">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D8" s="27">
+        <v>2.3888502401048117E-2</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2.341539353242561E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.9269974437717582E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
+        <v>1920</v>
+      </c>
+      <c r="B9" s="26">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1.9175182051957358E-2</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1.8793776215659797E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2.7727324924021142E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
+        <v>1921</v>
+      </c>
+      <c r="B10" s="26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1.5920503795794627E-2</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1.5762142697712256E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.665804521500878E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="28">
+        <v>1922</v>
+      </c>
+      <c r="B11" s="26">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1.7735482724731924E-2</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1.7358915440321466E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2.9147045660636712E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="28">
+        <v>1923</v>
+      </c>
+      <c r="B12" s="26">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1.1808516301191823E-2</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1.1550182563159922E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.1700461731544281E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="28">
+        <v>1924</v>
+      </c>
+      <c r="B13" s="26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1.2412464047806371E-2</v>
+      </c>
+      <c r="E13" s="27">
+        <v>1.2051974619196899E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.3227968264785816E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="28">
+        <v>1925</v>
+      </c>
+      <c r="B14" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1.2296385765273248E-2</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1.1612838848852211E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.8603197080921972E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="28">
+        <v>1926</v>
+      </c>
+      <c r="B15" s="26">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C15" s="27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1.1807883722594569E-2</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1.1279835071949837E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.6910917285951076E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
+        <v>1927</v>
+      </c>
+      <c r="B16" s="26">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C16" s="27">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D16" s="27">
+        <v>1.3324270090706721E-2</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1.2611325454960919E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.9636314497908168E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="28">
+        <v>1928</v>
+      </c>
+      <c r="B17" s="26">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1.8275614411383336E-2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1.6776271033952291E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2.4637046739627858E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="28">
+        <v>1929</v>
+      </c>
+      <c r="B18" s="26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C18" s="27">
+        <v>1.3823588035971814E-2</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1.8623662306777644E-2</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1.7285369587864214E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.8026220292157998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="28">
+        <v>1930</v>
+      </c>
+      <c r="B19" s="26">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C19" s="27">
+        <v>1.3654240654358251E-2</v>
+      </c>
+      <c r="D19" s="27">
+        <v>1.8559096945551128E-2</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1.8086544822587713E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>5.0039595154794201E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
+        <v>1931</v>
+      </c>
+      <c r="B20" s="26">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C20" s="27">
+        <v>8.1013583480538474E-3</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1.1906645569620252E-2</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1.1777768921330771E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>5.2844703493150867E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
+        <v>1932</v>
+      </c>
+      <c r="B21" s="26">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C21" s="27">
+        <v>5.6666799220582969E-3</v>
+      </c>
+      <c r="D21" s="27">
+        <v>9.2132505175983436E-3</v>
+      </c>
+      <c r="E21" s="27">
+        <v>9.1805545833349416E-3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2.0003084828770668E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
+        <v>1933</v>
+      </c>
+      <c r="B22" s="26">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C22" s="27">
+        <v>8.2567641952830586E-3</v>
+      </c>
+      <c r="D22" s="27">
+        <v>1.2527654867256637E-2</v>
+      </c>
+      <c r="E22" s="27">
+        <v>1.2319947729297679E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.8913060183564902E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="28">
+        <v>1934</v>
+      </c>
+      <c r="B23" s="26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C23" s="27">
+        <v>8.4119060824551679E-3</v>
+      </c>
+      <c r="D23" s="27">
+        <v>1.2596153846153845E-2</v>
+      </c>
+      <c r="E23" s="27">
+        <v>1.2467240258174256E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2.1804602965733645E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="28">
+        <v>1935</v>
+      </c>
+      <c r="B24" s="26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C24" s="27">
+        <v>9.3355028516016632E-3</v>
+      </c>
+      <c r="D24" s="27">
+        <v>1.3675213675213675E-2</v>
+      </c>
+      <c r="E24" s="27">
+        <v>1.3399933624653819E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2.4934182769441687E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
+        <v>1936</v>
+      </c>
+      <c r="B25" s="26">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C25" s="27">
+        <v>1.057482555871773E-2</v>
+      </c>
+      <c r="D25" s="27">
+        <v>1.9863013698630139E-2</v>
+      </c>
+      <c r="E25" s="27">
+        <v>1.916173730811874E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3.347979370396667E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="28">
+        <v>1937</v>
+      </c>
+      <c r="B26" s="26">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C26" s="27">
+        <v>1.7467541159148708E-2</v>
+      </c>
+      <c r="D26" s="27">
+        <v>4.802904564315353E-2</v>
+      </c>
+      <c r="E26" s="27">
+        <v>4.7451107226626092E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-1.5233939566095677E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="28">
+        <v>1938</v>
+      </c>
+      <c r="B27" s="26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C27" s="27">
+        <v>1.7818887151873082E-2</v>
+      </c>
+      <c r="D27" s="27">
+        <v>5.377643504531722E-2</v>
+      </c>
+      <c r="E27" s="27">
+        <v>5.2867255491757324E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-1.9920391942053826E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="28">
+        <v>1939</v>
+      </c>
+      <c r="B28" s="26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C28" s="27">
+        <v>1.161179921773142E-2</v>
+      </c>
+      <c r="D28" s="27">
+        <v>4.6157932011331441E-2</v>
+      </c>
+      <c r="E28" s="27">
+        <v>4.5518950482934639E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-7.8775272560298298E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="28">
+        <v>1940</v>
+      </c>
+      <c r="B29" s="26">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C29" s="27">
+        <v>1.276949425750554E-2</v>
+      </c>
+      <c r="D29" s="27">
+        <v>4.7496706192358365E-2</v>
+      </c>
+      <c r="E29" s="27">
+        <v>4.6911186128304277E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>9.5361667657965551E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="28">
+        <v>1941</v>
+      </c>
+      <c r="B30" s="26">
+        <v>0.113</v>
+      </c>
+      <c r="C30" s="27">
+        <v>1.635709761131204E-2</v>
+      </c>
+      <c r="D30" s="27">
+        <v>5.2550747863247864E-2</v>
+      </c>
+      <c r="E30" s="27">
+        <v>5.1889892452647399E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>6.4454652535492041E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="28">
+        <v>1942</v>
+      </c>
+      <c r="B31" s="26">
+        <v>0.192</v>
+      </c>
+      <c r="C31" s="27">
+        <v>3.2858811274896628E-2</v>
+      </c>
+      <c r="D31" s="27">
+        <v>7.2832369942196537E-2</v>
+      </c>
+      <c r="E31" s="27">
+        <v>7.2286807240127968E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.12904116670340207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="28">
+        <v>1943</v>
+      </c>
+      <c r="B32" s="26">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C32" s="27">
+        <v>0.10235807077413613</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.16481821214142761</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.16248383907531733</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>5.5540612939725516E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="28">
+        <v>1944</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0.252</v>
+      </c>
+      <c r="C33" s="27">
+        <v>9.9436120129391875E-2</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0.17482805922375516</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0.1723113845990924</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>9.627849642743827E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="28">
+        <v>1945</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0.10588442765635489</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.19595628522996403</v>
+      </c>
+      <c r="E34" s="27">
+        <v>0.1894934169363319</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>8.3289370468154766E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7600,17 +8346,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.61328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7642,7 +8388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1946</v>
       </c>
@@ -7674,7 +8420,7 @@
         <v>0.15866</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1947</v>
       </c>
@@ -7706,7 +8452,7 @@
         <v>0.16436999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1948</v>
       </c>
@@ -7738,7 +8484,7 @@
         <v>0.1174</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1949</v>
       </c>
@@ -7770,7 +8516,7 @@
         <v>0.12858</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1950</v>
       </c>
@@ -7802,7 +8548,7 @@
         <v>0.13844999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1951</v>
       </c>
@@ -7834,7 +8580,7 @@
         <v>0.18274000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1952</v>
       </c>
@@ -7866,7 +8612,7 @@
         <v>0.20635999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1953</v>
       </c>
@@ -7898,7 +8644,7 @@
         <v>0.20887</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1954</v>
       </c>
@@ -7930,7 +8676,7 @@
         <v>0.17746999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1955</v>
       </c>
@@ -7962,7 +8708,7 @@
         <v>0.18206</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1956</v>
       </c>
@@ -7994,7 +8740,7 @@
         <v>0.18321999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1957</v>
       </c>
@@ -8026,7 +8772,7 @@
         <v>0.18371999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1958</v>
       </c>
@@ -8058,7 +8804,7 @@
         <v>0.18146000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1959</v>
       </c>
@@ -8090,7 +8836,7 @@
         <v>0.18318999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1960</v>
       </c>
@@ -8122,7 +8868,7 @@
         <v>0.18027000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1961</v>
       </c>
@@ -8154,7 +8900,7 @@
         <v>0.18147593462695963</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1962</v>
       </c>
@@ -8186,7 +8932,7 @@
         <v>0.18678244538615785</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1963</v>
       </c>
@@ -8218,7 +8964,7 @@
         <v>0.19275476296453331</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1964</v>
       </c>
@@ -8250,7 +8996,7 @@
         <v>0.17217526383198739</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1965</v>
       </c>
@@ -8282,7 +9028,7 @@
         <v>0.1653458978081509</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1966</v>
       </c>
@@ -8314,7 +9060,7 @@
         <v>0.16943932851587079</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1967</v>
       </c>
@@ -8346,7 +9092,7 @@
         <v>0.17179283109795071</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1968</v>
       </c>
@@ -8378,7 +9124,7 @@
         <v>0.19520920581518236</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1969</v>
       </c>
@@ -8410,7 +9156,7 @@
         <v>0.20851739175467982</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1970</v>
       </c>
@@ -8442,7 +9188,7 @@
         <v>0.19428289797842294</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1971</v>
       </c>
@@ -8474,7 +9220,7 @@
         <v>0.18209663891192146</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1972</v>
       </c>
@@ -8506,7 +9252,7 @@
         <v>0.18571060882826276</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1973</v>
       </c>
@@ -8538,7 +9284,7 @@
         <v>0.19432599920844121</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1974</v>
       </c>
@@ -8570,7 +9316,7 @@
         <v>0.20209397835908469</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1975</v>
       </c>
@@ -8602,7 +9348,7 @@
         <v>0.20005744104049603</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1976</v>
       </c>
@@ -8634,7 +9380,7 @@
         <v>0.2015581755092497</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1977</v>
       </c>
@@ -8666,7 +9412,7 @@
         <v>0.21380982681682958</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1978</v>
       </c>
@@ -8698,7 +9444,7 @@
         <v>0.22682921363468966</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1979</v>
       </c>
@@ -8730,7 +9476,7 @@
         <v>0.2278563653675971</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1980</v>
       </c>
@@ -8762,7 +9508,7 @@
         <v>0.2405858081365746</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1981</v>
       </c>
@@ -8794,7 +9540,7 @@
         <v>0.25198195596261813</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1982</v>
       </c>
@@ -8826,7 +9572,7 @@
         <v>0.23566407295281333</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1983</v>
       </c>
@@ -8858,7 +9604,7 @@
         <v>0.21826329279594309</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1984</v>
       </c>
@@ -8890,7 +9636,7 @@
         <v>0.21681106663532582</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1985</v>
       </c>
@@ -8922,7 +9668,7 @@
         <v>0.2181735887064381</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1986</v>
       </c>
@@ -8954,7 +9700,7 @@
         <v>0.2180739983058062</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1987</v>
       </c>
@@ -8986,7 +9732,7 @@
         <v>0.19065665676103641</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1988</v>
       </c>
@@ -9018,7 +9764,7 @@
         <v>0.19068619299544376</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1989</v>
       </c>
@@ -9050,7 +9796,7 @@
         <v>0.19279598366076947</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1990</v>
       </c>
@@ -9082,7 +9828,7 @@
         <v>0.19147099568173717</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1991</v>
       </c>
@@ -9114,7 +9860,7 @@
         <v>0.18863018037375237</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1992</v>
       </c>
@@ -9146,7 +9892,7 @@
         <v>0.1843118927002009</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1993</v>
       </c>
@@ -9178,7 +9924,7 @@
         <v>0.18453895582861188</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1994</v>
       </c>
@@ -9210,7 +9956,7 @@
         <v>0.18870154707245818</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1995</v>
       </c>
@@ -9242,7 +9988,7 @@
         <v>0.19094893627657941</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1996</v>
       </c>
@@ -9274,7 +10020,7 @@
         <v>0.19405439831501772</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1997</v>
       </c>
@@ -9306,7 +10052,7 @@
         <v>0.19693438158367838</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1998</v>
       </c>
@@ -9338,7 +10084,7 @@
         <v>0.19685151359891082</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1999</v>
       </c>
@@ -9370,7 +10116,7 @@
         <v>0.19931237928247364</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -9402,7 +10148,7 @@
         <v>0.20075590140175895</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2001</v>
       </c>
@@ -9434,7 +10180,7 @@
         <v>0.19274835676033694</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2002</v>
       </c>
@@ -9466,7 +10212,7 @@
         <v>0.1792953062375921</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2003</v>
       </c>
@@ -9498,7 +10244,7 @@
         <v>0.1563243574013406</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2004</v>
       </c>
@@ -9530,7 +10276,7 @@
         <v>0.15725038084588425</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2005</v>
       </c>
@@ -9562,7 +10308,7 @@
         <v>0.15787174918212291</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2006</v>
       </c>
@@ -9594,7 +10340,7 @@
         <v>0.15956996466498724</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2007</v>
       </c>
@@ -9626,7 +10372,7 @@
         <v>0.16212858445855571</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2008</v>
       </c>
@@ -9658,7 +10404,7 @@
         <v>0.1557685113151745</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2009</v>
       </c>
@@ -9690,7 +10436,7 @@
         <v>0.14999357031838667</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2010</v>
       </c>
@@ -9722,7 +10468,7 @@
         <v>0.15101223103610467</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -9754,7 +10500,7 @@
         <v>0.15116435249084154</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2012</v>
       </c>
@@ -9786,7 +10532,7 @@
         <v>0.15281110126464911</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2013</v>
       </c>
@@ -9818,7 +10564,7 @@
         <v>0.15137733172710757</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2014</v>
       </c>
@@ -9850,7 +10596,7 @@
         <v>0.15342788108881217</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -9882,7 +10628,7 @@
         <v>0.14472647111141751</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2016</v>
       </c>
@@ -9914,7 +10660,7 @@
         <v>0.14952614774223</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -9953,36 +10699,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032DD406-F2CA-470B-AAE3-9A0DD963B1E2}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:N25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.6" x14ac:dyDescent="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -9990,7 +10736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -9998,7 +10744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -10006,76 +10752,58 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -10090,7 +10818,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -10106,392 +10834,426 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="20" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-    </row>
-    <row r="25" spans="1:14" ht="104.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-    </row>
-    <row r="26" spans="1:14" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" ht="104.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-    </row>
-    <row r="27" spans="1:14" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="22" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-    </row>
-    <row r="28" spans="1:14" ht="76.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="22" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="1:14" ht="76.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B31" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" ht="57.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="25" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="11"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="12"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="11"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="13"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C54" s="14"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="15"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" s="15"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="12"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="B34:N34"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A22:N24"/>
+    <mergeCell ref="A9:N11"/>
+    <mergeCell ref="A12:N20"/>
+    <mergeCell ref="A25:N27"/>
     <mergeCell ref="B28:N28"/>
     <mergeCell ref="B29:N29"/>
-    <mergeCell ref="B31:N31"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A20:N22"/>
-    <mergeCell ref="A7:N9"/>
-    <mergeCell ref="A10:N18"/>
-    <mergeCell ref="A23:N25"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B27:N27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" location="_grp8" xr:uid="{514D8C00-DD8A-4323-A5F5-335ABC662350}"/>
-    <hyperlink ref="B31" r:id="rId2" xr:uid="{AFFFE7F2-4BFF-4D9E-A2D2-974AE5EF4E52}"/>
+    <hyperlink ref="B31" r:id="rId1" location="_grp8" xr:uid="{514D8C00-DD8A-4323-A5F5-335ABC662350}"/>
+    <hyperlink ref="B33" r:id="rId2" xr:uid="{AFFFE7F2-4BFF-4D9E-A2D2-974AE5EF4E52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
